--- a/server/mail_test.xlsx
+++ b/server/mail_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alsxo\Documents\GitHub\isbr-auto-mail\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289C9721-2531-478C-929D-8051BAA45F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7EC975-E537-4CDE-880F-86C6C9567DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-4130" windowWidth="38620" windowHeight="21100" xr2:uid="{D67FE531-1862-44B7-9D96-DEC41780D94B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>email</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,22 @@
   </si>
   <si>
     <t>ㄴㅇㅁㄹ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA0FF2E-9977-428C-8658-A5398031F0C5}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -511,7 +527,7 @@
     <col min="5" max="5" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -527,8 +543,11 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -544,8 +563,11 @@
       <c r="E2" s="2">
         <v>500000</v>
       </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -561,8 +583,11 @@
       <c r="E3" s="2">
         <v>1000000</v>
       </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -577,6 +602,9 @@
       </c>
       <c r="E4" s="2">
         <v>1000000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
